--- a/8rVqywnB.xlsx
+++ b/8rVqywnB.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="tasks" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="users" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="projects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tasks" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="users" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="projects" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -360,7 +360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,10 +435,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -588,62 +588,6 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>task 2 pro 3</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>task 1 pro 3</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -725,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -740,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -777,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
